--- a/biology/Botanique/Oxalis_palmifrons/Oxalis_palmifrons.xlsx
+++ b/biology/Botanique/Oxalis_palmifrons/Oxalis_palmifrons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oxalis palmifrons est une espèce de plantes à fleurs de la famille des Oxalidaceae, originaire des provinces du Cap Nord et Cap-Occidental en Afrique du Sud[1], [2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oxalis palmifrons est une espèce de plantes à fleurs de la famille des Oxalidaceae, originaire des provinces du Cap Nord et Cap-Occidental en Afrique du Sud, ,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce présente un bulbe brun foncé, des pétioles courts (2 cm) et de nombreuses folioles palmées ( plus de 20)[1]. Elle fleurit parfois avec des pétales blancs ou jaunes[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce présente un bulbe brun foncé, des pétioles courts (2 cm) et de nombreuses folioles palmées ( plus de 20). Elle fleurit parfois avec des pétales blancs ou jaunes,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme décrit par Terence Macleane Salter, l'espèce  « pousse dans des espaces plats et ouverts et les bulbes, qui se trouvent à une profondeur d'environ 10 pouces (20cm), dans un sol argileux dur, sont généralement encastrés parmi les pierres »  [2]. Il est endémique des provinces du Cap Nord et Occidental en Afrique du Sud [1],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme décrit par Terence Macleane Salter, l'espèce  « pousse dans des espaces plats et ouverts et les bulbes, qui se trouvent à une profondeur d'environ 10 pouces (20cm), dans un sol argileux dur, sont généralement encastrés parmi les pierres »  . Il est endémique des provinces du Cap Nord et Occidental en Afrique du Sud ,.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est membre de l'alliance Oxalis tomentosa, qui comprend O. oligophylla Salter, O. hygrophila Dreyer, O. tomentosa L., O. palmifrons Salter et O. saltusbelli  [3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est membre de l'alliance Oxalis tomentosa, qui comprend O. oligophylla Salter, O. hygrophila Dreyer, O. tomentosa L., O. palmifrons Salter et O. saltusbelli  .
 </t>
         </is>
       </c>
